--- a/modele/porte.xlsx
+++ b/modele/porte.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2917C28-732E-4B63-A5F2-5BA97302C9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0C9AD2-F423-4F76-9DAF-FEEBCF964E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="7" r:id="rId1"/>
     <sheet name="enums" sheetId="1" r:id="rId2"/>
     <sheet name="correspondance" sheetId="2" r:id="rId3"/>
-    <sheet name="performance" sheetId="6" r:id="rId4"/>
-    <sheet name="b" sheetId="5" r:id="rId5"/>
-    <sheet name="uporte" sheetId="3" r:id="rId6"/>
+    <sheet name="type_porte" sheetId="9" r:id="rId4"/>
+    <sheet name="performance" sheetId="6" r:id="rId5"/>
+    <sheet name="b" sheetId="5" r:id="rId6"/>
+    <sheet name="uporte" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="209">
   <si>
     <t>enum</t>
   </si>
@@ -616,6 +617,81 @@
   </si>
   <si>
     <t>logement/enveloppe/porte_collection/porte/donnee_entree/enum_type_pose_id</t>
+  </si>
+  <si>
+    <t>type_porte</t>
+  </si>
+  <si>
+    <t>PORTE_SAS</t>
+  </si>
+  <si>
+    <t>PORTE_PLEINE</t>
+  </si>
+  <si>
+    <t>PORTE_PLEINE_ISOLEE</t>
+  </si>
+  <si>
+    <t>Porte précédée d'un sas</t>
+  </si>
+  <si>
+    <t>Porte pleine isolée</t>
+  </si>
+  <si>
+    <t>Porte pleine</t>
+  </si>
+  <si>
+    <t>]0;30[</t>
+  </si>
+  <si>
+    <t>Porte avec moins de 30% de vitrage simple</t>
+  </si>
+  <si>
+    <t>PORTE_VITRAGE30_SIMPLE</t>
+  </si>
+  <si>
+    <t>PORTE_VITRAGE30_DOUBLE</t>
+  </si>
+  <si>
+    <t>Porte avec moins de 30% de double vitrage</t>
+  </si>
+  <si>
+    <t>PORTE_ISOLEE_VITRAGE30_SIMPLE</t>
+  </si>
+  <si>
+    <t>PORTE_ISOLEE_VITRAGE30_DOUBLE</t>
+  </si>
+  <si>
+    <t>Porte isolée avec moins de 30% de vitrage simple</t>
+  </si>
+  <si>
+    <t>Porte isolée avec moins de 30% de double vitrage</t>
+  </si>
+  <si>
+    <t>[30;60]</t>
+  </si>
+  <si>
+    <t>PORTE_VITRAGE60_SIMPLE</t>
+  </si>
+  <si>
+    <t>PORTE_VITRAGE60_DOUBLE</t>
+  </si>
+  <si>
+    <t>PORTE_ISOLEE_VITRAGE60_SIMPLE</t>
+  </si>
+  <si>
+    <t>PORTE_ISOLEE_VITRAGE60_DOUBLE</t>
+  </si>
+  <si>
+    <t>Porte avec moins de 30 à 60% de vitrage simple</t>
+  </si>
+  <si>
+    <t>Porte avec moins de 30 à 60% de double vitrage</t>
+  </si>
+  <si>
+    <t>Porte isolée avec moins de 30 à 60% de vitrage simple</t>
+  </si>
+  <si>
+    <t>Porte isolée avec moins de 30 à 60% de double vitrage</t>
   </si>
 </sst>
 </file>
@@ -702,7 +778,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="55">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -767,6 +843,46 @@
         <b/>
         <i val="0"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -904,52 +1020,107 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556786</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A12BF53-608F-5717-3B2E-B98E211EBF77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9311640" y="0"/>
+          <a:ext cx="6066046" cy="3360711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22D7E997-17B9-4E37-8E19-580BD4C50218}" name="modele" displayName="modele" ref="A1:J25" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22D7E997-17B9-4E37-8E19-580BD4C50218}" name="modele" displayName="modele" ref="A1:J25" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:J25" xr:uid="{22D7E997-17B9-4E37-8E19-580BD4C50218}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
     <sortCondition ref="B1:B21"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7D0EB411-5D8E-4B5A-AD74-FA209BA72D7B}" name="domaine" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{822444B5-A8B3-47FC-9210-B91317C92031}" name="scope" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{19B2A995-D0B8-4096-BF18-75E29C3A63D7}" name="variable" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{725811B5-0005-4FC1-AF3A-6144303FD316}" name="description" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{4DECF88B-1E26-43E0-9675-28CDAC5DE144}" name="type" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{47827557-0DA0-45F5-89EF-FF88BB00169E}" name="format" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{98280762-7A95-4FF8-B9EF-4CAD7CB051B4}" name="unite" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{2340E97C-4335-4C69-A5F7-572EADE5345E}" name="statut" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{3CBB9899-637E-45E2-8ED2-2D16B9F92FE0}" name="nullable" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{B112CAF1-2C82-48F5-88E2-4B317CA3A2DF}" name="opendata_xpath" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{7D0EB411-5D8E-4B5A-AD74-FA209BA72D7B}" name="domaine" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{822444B5-A8B3-47FC-9210-B91317C92031}" name="scope" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{19B2A995-D0B8-4096-BF18-75E29C3A63D7}" name="variable" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{725811B5-0005-4FC1-AF3A-6144303FD316}" name="description" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{4DECF88B-1E26-43E0-9675-28CDAC5DE144}" name="type" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{47827557-0DA0-45F5-89EF-FF88BB00169E}" name="format" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{98280762-7A95-4FF8-B9EF-4CAD7CB051B4}" name="unite" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{2340E97C-4335-4C69-A5F7-572EADE5345E}" name="statut" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{3CBB9899-637E-45E2-8ED2-2D16B9F92FE0}" name="nullable" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{B112CAF1-2C82-48F5-88E2-4B317CA3A2DF}" name="opendata_xpath" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C99505C-1A6A-4CDB-92C7-36400AC97F62}" name="enums" displayName="enums" ref="A1:D28" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C99505C-1A6A-4CDB-92C7-36400AC97F62}" name="enums" displayName="enums" ref="A1:D28" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:D28" xr:uid="{8C99505C-1A6A-4CDB-92C7-36400AC97F62}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1A2B7FE4-0B3B-4E8D-BDEA-F3AA04468AC8}" name="enum" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{8C23C958-C3FA-4A5F-ACA2-AC2C72F77679}" name="const" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{F548C974-D23E-4315-A177-1A84DB2993AB}" name="description" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{E465DECF-AFA4-44C4-9B24-8A5768CBABA7}" name="deprecated" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{1A2B7FE4-0B3B-4E8D-BDEA-F3AA04468AC8}" name="enum" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{8C23C958-C3FA-4A5F-ACA2-AC2C72F77679}" name="const" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{F548C974-D23E-4315-A177-1A84DB2993AB}" name="description" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{E465DECF-AFA4-44C4-9B24-8A5768CBABA7}" name="deprecated" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1A43F99B-95CC-49D0-A659-8B4F8C924078}" name="correspondance" displayName="correspondance" ref="A1:G67" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1A43F99B-95CC-49D0-A659-8B4F8C924078}" name="correspondance" displayName="correspondance" ref="A1:G67" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:G67" xr:uid="{1A43F99B-95CC-49D0-A659-8B4F8C924078}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{3F97884F-7F0D-4F82-BB84-9EA3A59081D4}" name="table" dataDxfId="26"/>
-    <tableColumn id="1" xr3:uid="{D502C02C-F1A8-40BC-B0A9-FC542CD0A0FA}" name="table_id" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{7F3693F6-CCDB-4602-A230-882977C5C7ED}" name="table_description" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{F0D5E896-7E9D-4FB4-97AE-E789EC2BD40C}" name="enum" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{05C5C2CB-C921-4329-89EB-2B4131A549A7}" name="attribut" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{2E8CFD81-2888-45F8-83BB-47369F3103D9}" name="valeur" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{57B95255-A3A3-404E-BF2E-85A452FB6ACA}" name="controle" dataDxfId="20">
+    <tableColumn id="8" xr3:uid="{3F97884F-7F0D-4F82-BB84-9EA3A59081D4}" name="table" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{D502C02C-F1A8-40BC-B0A9-FC542CD0A0FA}" name="table_id" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{7F3693F6-CCDB-4602-A230-882977C5C7ED}" name="table_description" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{F0D5E896-7E9D-4FB4-97AE-E789EC2BD40C}" name="enum" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{05C5C2CB-C921-4329-89EB-2B4131A549A7}" name="attribut" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{2E8CFD81-2888-45F8-83BB-47369F3103D9}" name="valeur" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{57B95255-A3A3-404E-BF2E-85A452FB6ACA}" name="controle" dataDxfId="28">
       <calculatedColumnFormula array="1">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -958,6 +1129,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AA43354E-92A3-4142-BD9E-57C27A5948E2}" name="type_vitrage" displayName="type_vitrage" ref="A1:F23" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:F23" xr:uid="{AA43354E-92A3-4142-BD9E-57C27A5948E2}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{ACBAF31B-BAE0-4922-A4D7-80C4F783826C}" name="presence_sas" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{E06D1F3F-AAB4-48FA-89A5-EB91AFC6E21F}" name="isolation" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{9D9A4781-D7D0-4B02-9701-0C5C7561BA65}" name="taux_vitrage" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{28DA132B-2BD3-4A2D-B069-D3900BC98D7F}" name="type_vitrage" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{20781487-2867-4E7C-B31F-39888A7141EA}" name="type_porte" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{C5A44394-ACD6-495F-9F4A-AA94A5C66EAE}" name="controle" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8696DE4-4F6A-48DB-9440-75EA40020EE3}" name="qualite_composant" displayName="qualite_composant" ref="A1:C5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:C5" xr:uid="{C8696DE4-4F6A-48DB-9440-75EA40020EE3}"/>
   <tableColumns count="3">
@@ -969,7 +1155,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1BE571AF-3029-4923-B979-C5E2A13ED4B4}" name="b" displayName="b" ref="A1:C9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:C9" xr:uid="{1BE571AF-3029-4923-B979-C5E2A13ED4B4}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -985,9 +1171,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6E8F6B67-1A2D-4E71-9F21-DF4E26D70055}" name="uporte" displayName="uporte" ref="A1:H78" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H78" xr:uid="{6E8F6B67-1A2D-4E71-9F21-DF4E26D70055}"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6E8F6B67-1A2D-4E71-9F21-DF4E26D70055}" name="uporte" displayName="uporte" ref="A1:H69" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H69" xr:uid="{6E8F6B67-1A2D-4E71-9F21-DF4E26D70055}"/>
   <tableColumns count="8">
     <tableColumn id="9" xr3:uid="{4FFCDFD3-6198-4E3B-9D1F-E1546B9272D6}" name="presence_sas" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{062E3F29-1078-406B-A3C8-481FA7B8DA14}" name="isolation" dataDxfId="6"/>
@@ -2000,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2363,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F5316C-8434-4BCD-991D-32B081DE02C4}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="B30:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3795,11 +3981,511 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E5A614-808B-4AC9-8C9B-76CE458BF996}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6C3092-1FB5-452D-A86C-4E70E10F99E9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3870,7 +4556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5AA00F-5EDE-46B1-987C-D9A212667B29}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3991,11 +4677,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138724F0-5A5E-4219-8B58-69A080177D08}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5203,9 +5891,6 @@
       <c r="B59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H59" s="4">
         <v>1.5</v>
       </c>
@@ -5219,10 +5904,16 @@
         <v>31</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="4">
+        <v>30</v>
+      </c>
+      <c r="H60" s="4">
         <v>4</v>
-      </c>
-      <c r="H60" s="4">
-        <v>1.5</v>
       </c>
       <c r="K60" s="4"/>
     </row>
@@ -5234,10 +5925,16 @@
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4">
+        <v>30</v>
       </c>
       <c r="H61" s="4">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="K61" s="4"/>
     </row>
@@ -5249,12 +5946,17 @@
         <v>31</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4">
+        <v>30</v>
       </c>
       <c r="H62" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="K62" s="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -5264,7 +5966,7 @@
         <v>31</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>9</v>
@@ -5273,9 +5975,8 @@
         <v>30</v>
       </c>
       <c r="H63" s="4">
-        <v>4</v>
-      </c>
-      <c r="K63" s="4"/>
+        <v>5.8</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
@@ -5285,18 +5986,20 @@
         <v>31</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="4">
-        <v>30</v>
+      <c r="F64" s="4">
+        <v>30</v>
+      </c>
+      <c r="G64" s="4">
+        <v>60</v>
       </c>
       <c r="H64" s="4">
-        <v>4</v>
-      </c>
-      <c r="K64" s="4"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -5306,16 +6009,19 @@
         <v>31</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="4">
-        <v>30</v>
+      <c r="F65" s="4">
+        <v>30</v>
+      </c>
+      <c r="G65" s="4">
+        <v>60</v>
       </c>
       <c r="H65" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -5326,16 +6032,19 @@
         <v>31</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="4">
-        <v>30</v>
+      <c r="F66" s="4">
+        <v>30</v>
+      </c>
+      <c r="G66" s="4">
+        <v>60</v>
       </c>
       <c r="H66" s="4">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -5346,7 +6055,7 @@
         <v>31</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>9</v>
@@ -5358,7 +6067,7 @@
         <v>60</v>
       </c>
       <c r="H67" s="4">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -5368,20 +6077,11 @@
       <c r="B68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="4">
-        <v>30</v>
-      </c>
-      <c r="G68" s="4">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H68" s="4">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -5391,185 +6091,18 @@
       <c r="B69" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="4">
-        <v>30</v>
-      </c>
-      <c r="G69" s="4">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H69" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>0</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="4">
-        <v>30</v>
-      </c>
-      <c r="G70" s="4">
-        <v>60</v>
-      </c>
-      <c r="H70" s="4">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>0</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>0</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <v>0</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>0</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>0</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <v>0</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <v>0</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
-        <v>0</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="4">
         <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/modele/porte.xlsx
+++ b/modele/porte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0C9AD2-F423-4F76-9DAF-FEEBCF964E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD04F1-4695-4B6B-A560-E63DD7D25A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="7" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="209">
   <si>
     <t>enum</t>
   </si>
@@ -778,7 +778,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="56">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1024,13 +1027,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>556786</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>68871</xdr:rowOff>
@@ -1076,51 +1079,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22D7E997-17B9-4E37-8E19-580BD4C50218}" name="modele" displayName="modele" ref="A1:J25" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22D7E997-17B9-4E37-8E19-580BD4C50218}" name="modele" displayName="modele" ref="A1:J25" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:J25" xr:uid="{22D7E997-17B9-4E37-8E19-580BD4C50218}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
     <sortCondition ref="B1:B21"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7D0EB411-5D8E-4B5A-AD74-FA209BA72D7B}" name="domaine" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{822444B5-A8B3-47FC-9210-B91317C92031}" name="scope" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{19B2A995-D0B8-4096-BF18-75E29C3A63D7}" name="variable" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{725811B5-0005-4FC1-AF3A-6144303FD316}" name="description" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{4DECF88B-1E26-43E0-9675-28CDAC5DE144}" name="type" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{47827557-0DA0-45F5-89EF-FF88BB00169E}" name="format" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{98280762-7A95-4FF8-B9EF-4CAD7CB051B4}" name="unite" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{2340E97C-4335-4C69-A5F7-572EADE5345E}" name="statut" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{3CBB9899-637E-45E2-8ED2-2D16B9F92FE0}" name="nullable" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{B112CAF1-2C82-48F5-88E2-4B317CA3A2DF}" name="opendata_xpath" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{7D0EB411-5D8E-4B5A-AD74-FA209BA72D7B}" name="domaine" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{822444B5-A8B3-47FC-9210-B91317C92031}" name="scope" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{19B2A995-D0B8-4096-BF18-75E29C3A63D7}" name="variable" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{725811B5-0005-4FC1-AF3A-6144303FD316}" name="description" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{4DECF88B-1E26-43E0-9675-28CDAC5DE144}" name="type" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{47827557-0DA0-45F5-89EF-FF88BB00169E}" name="format" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{98280762-7A95-4FF8-B9EF-4CAD7CB051B4}" name="unite" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{2340E97C-4335-4C69-A5F7-572EADE5345E}" name="statut" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{3CBB9899-637E-45E2-8ED2-2D16B9F92FE0}" name="nullable" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{B112CAF1-2C82-48F5-88E2-4B317CA3A2DF}" name="opendata_xpath" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C99505C-1A6A-4CDB-92C7-36400AC97F62}" name="enums" displayName="enums" ref="A1:D28" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C99505C-1A6A-4CDB-92C7-36400AC97F62}" name="enums" displayName="enums" ref="A1:D28" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:D28" xr:uid="{8C99505C-1A6A-4CDB-92C7-36400AC97F62}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1A2B7FE4-0B3B-4E8D-BDEA-F3AA04468AC8}" name="enum" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{8C23C958-C3FA-4A5F-ACA2-AC2C72F77679}" name="const" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{F548C974-D23E-4315-A177-1A84DB2993AB}" name="description" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{E465DECF-AFA4-44C4-9B24-8A5768CBABA7}" name="deprecated" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{1A2B7FE4-0B3B-4E8D-BDEA-F3AA04468AC8}" name="enum" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{8C23C958-C3FA-4A5F-ACA2-AC2C72F77679}" name="const" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{F548C974-D23E-4315-A177-1A84DB2993AB}" name="description" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{E465DECF-AFA4-44C4-9B24-8A5768CBABA7}" name="deprecated" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1A43F99B-95CC-49D0-A659-8B4F8C924078}" name="correspondance" displayName="correspondance" ref="A1:G67" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:G67" xr:uid="{1A43F99B-95CC-49D0-A659-8B4F8C924078}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1A43F99B-95CC-49D0-A659-8B4F8C924078}" name="correspondance" displayName="correspondance" ref="A1:G82" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A1:G82" xr:uid="{1A43F99B-95CC-49D0-A659-8B4F8C924078}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{3F97884F-7F0D-4F82-BB84-9EA3A59081D4}" name="table" dataDxfId="34"/>
-    <tableColumn id="1" xr3:uid="{D502C02C-F1A8-40BC-B0A9-FC542CD0A0FA}" name="table_id" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{7F3693F6-CCDB-4602-A230-882977C5C7ED}" name="table_description" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{F0D5E896-7E9D-4FB4-97AE-E789EC2BD40C}" name="enum" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{05C5C2CB-C921-4329-89EB-2B4131A549A7}" name="attribut" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{2E8CFD81-2888-45F8-83BB-47369F3103D9}" name="valeur" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{57B95255-A3A3-404E-BF2E-85A452FB6ACA}" name="controle" dataDxfId="28">
+    <tableColumn id="8" xr3:uid="{3F97884F-7F0D-4F82-BB84-9EA3A59081D4}" name="table" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{D502C02C-F1A8-40BC-B0A9-FC542CD0A0FA}" name="table_id" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{7F3693F6-CCDB-4602-A230-882977C5C7ED}" name="table_description" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{F0D5E896-7E9D-4FB4-97AE-E789EC2BD40C}" name="enum" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{05C5C2CB-C921-4329-89EB-2B4131A549A7}" name="attribut" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{2E8CFD81-2888-45F8-83BB-47369F3103D9}" name="valeur" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{57B95255-A3A3-404E-BF2E-85A452FB6ACA}" name="controle" dataDxfId="29">
       <calculatedColumnFormula array="1">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1129,56 +1132,57 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AA43354E-92A3-4142-BD9E-57C27A5948E2}" name="type_vitrage" displayName="type_vitrage" ref="A1:F23" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AA43354E-92A3-4142-BD9E-57C27A5948E2}" name="type_vitrage" displayName="type_vitrage" ref="A1:F23" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:F23" xr:uid="{AA43354E-92A3-4142-BD9E-57C27A5948E2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ACBAF31B-BAE0-4922-A4D7-80C4F783826C}" name="presence_sas" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{E06D1F3F-AAB4-48FA-89A5-EB91AFC6E21F}" name="isolation" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{9D9A4781-D7D0-4B02-9701-0C5C7561BA65}" name="taux_vitrage" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{28DA132B-2BD3-4A2D-B069-D3900BC98D7F}" name="type_vitrage" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{20781487-2867-4E7C-B31F-39888A7141EA}" name="type_porte" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{C5A44394-ACD6-495F-9F4A-AA94A5C66EAE}" name="controle" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{ACBAF31B-BAE0-4922-A4D7-80C4F783826C}" name="presence_sas" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{E06D1F3F-AAB4-48FA-89A5-EB91AFC6E21F}" name="isolation" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{9D9A4781-D7D0-4B02-9701-0C5C7561BA65}" name="taux_vitrage" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{28DA132B-2BD3-4A2D-B069-D3900BC98D7F}" name="type_vitrage" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{20781487-2867-4E7C-B31F-39888A7141EA}" name="type_porte" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{C5A44394-ACD6-495F-9F4A-AA94A5C66EAE}" name="controle" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8696DE4-4F6A-48DB-9440-75EA40020EE3}" name="qualite_composant" displayName="qualite_composant" ref="A1:C5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8696DE4-4F6A-48DB-9440-75EA40020EE3}" name="qualite_composant" displayName="qualite_composant" ref="A1:C5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:C5" xr:uid="{C8696DE4-4F6A-48DB-9440-75EA40020EE3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C58A8772-1461-4EE4-B410-18D2EA5B9FE5}" name="performance" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{3E310C5B-DE57-4C7C-96DD-094C45C648B8}" name="u[gte]" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{373FFF1C-C7DC-4454-B3B6-76AB4553F37E}" name="u[lt]" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{C58A8772-1461-4EE4-B410-18D2EA5B9FE5}" name="performance" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{3E310C5B-DE57-4C7C-96DD-094C45C648B8}" name="u[gte]" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{373FFF1C-C7DC-4454-B3B6-76AB4553F37E}" name="u[lt]" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1BE571AF-3029-4923-B979-C5E2A13ED4B4}" name="b" displayName="b" ref="A1:C9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1BE571AF-3029-4923-B979-C5E2A13ED4B4}" name="b" displayName="b" ref="A1:C9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:C9" xr:uid="{1BE571AF-3029-4923-B979-C5E2A13ED4B4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE598186-43A0-47E8-99ED-7604D454BAC6}" name="id" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{091EBF71-87FC-4B6E-8D82-DD04E13AADFE}" name="mitoyennete" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A811EF16-487E-423E-9650-691A8C2415D8}" name="b" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{AE598186-43A0-47E8-99ED-7604D454BAC6}" name="id" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{091EBF71-87FC-4B6E-8D82-DD04E13AADFE}" name="mitoyennete" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{A811EF16-487E-423E-9650-691A8C2415D8}" name="b" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6E8F6B67-1A2D-4E71-9F21-DF4E26D70055}" name="uporte" displayName="uporte" ref="A1:H69" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H69" xr:uid="{6E8F6B67-1A2D-4E71-9F21-DF4E26D70055}"/>
-  <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{4FFCDFD3-6198-4E3B-9D1F-E1546B9272D6}" name="presence_sas" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{062E3F29-1078-406B-A3C8-481FA7B8DA14}" name="isolation" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{99EDBA8C-0895-443C-8CD5-65432035FD08}" name="nature_menuiserie" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{EE920A3D-6FB8-43AD-9AE9-7713FE4E25F4}" name="type_vitrage" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6E8F6B67-1A2D-4E71-9F21-DF4E26D70055}" name="uporte" displayName="uporte" ref="A1:I69" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I69" xr:uid="{6E8F6B67-1A2D-4E71-9F21-DF4E26D70055}"/>
+  <tableColumns count="9">
+    <tableColumn id="9" xr3:uid="{4FFCDFD3-6198-4E3B-9D1F-E1546B9272D6}" name="presence_sas" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{062E3F29-1078-406B-A3C8-481FA7B8DA14}" name="isolation" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{99EDBA8C-0895-443C-8CD5-65432035FD08}" name="nature_menuiserie" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{EE920A3D-6FB8-43AD-9AE9-7713FE4E25F4}" name="type_vitrage" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{37ADC251-DE6C-47B9-9B63-43677762E175}" name="taux_vitrage" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{A01030B6-B33C-482C-83F9-6D8C9408F165}" name="taux_vitrage[lt]" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{1ADA7EB1-280B-4E3D-A3C4-7EC47CC68138}" name="taux_vitrage[gte]" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{33E36FC9-7629-4298-915D-0EB27B1D8F7F}" name="taux_vitrage[lte]" dataDxfId="1"/>
@@ -2186,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2547,10 +2551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F5316C-8434-4BCD-991D-32B081DE02C4}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="B30:G32"/>
+      <selection activeCell="A53" sqref="A53:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,7 +3759,7 @@
         <v>94</v>
       </c>
       <c r="F57" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G57" s="7" t="str" cm="1">
         <f t="array" ref="G57">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
@@ -3962,13 +3966,328 @@
         <v>46</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="7" t="str" cm="1">
         <f t="array" ref="G67">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7" t="str" cm="1">
+        <f t="array" ref="G68">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7" t="str" cm="1">
+        <f t="array" ref="G69">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="4">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7" t="str" cm="1">
+        <f t="array" ref="G70">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="4">
+        <v>4</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7" t="str" cm="1">
+        <f t="array" ref="G71">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="4">
+        <v>5</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7" t="str" cm="1">
+        <f t="array" ref="G72">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="4">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7" t="str" cm="1">
+        <f t="array" ref="G73">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="4">
+        <v>7</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7" t="str" cm="1">
+        <f t="array" ref="G74">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="4">
+        <v>8</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7" t="str" cm="1">
+        <f t="array" ref="G75">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="4">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7" t="str" cm="1">
+        <f t="array" ref="G76">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="4">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7" t="str" cm="1">
+        <f t="array" ref="G77">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="4">
+        <v>11</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7" t="str" cm="1">
+        <f t="array" ref="G78">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="4">
+        <v>12</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7" t="str" cm="1">
+        <f t="array" ref="G79">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="4">
+        <v>13</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7" t="str" cm="1">
+        <f t="array" ref="G80">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="4">
+        <v>14</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7" t="str" cm="1">
+        <f t="array" ref="G81">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="4">
+        <v>14</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7" t="str" cm="1">
+        <f t="array" ref="G82">IF(OR(ISBLANK(correspondance[[#This Row],[enum]]),ISBLANK(correspondance[[#This Row],[valeur]])),"",INDEX(enums[description],MATCH(1,(enums[enum]=correspondance[[#This Row],[enum]])*(enums[const]=correspondance[[#This Row],[valeur]]),0),1))</f>
         <v/>
       </c>
     </row>
@@ -3985,7 +4304,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4679,10 +4998,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138724F0-5A5E-4219-8B58-69A080177D08}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4690,14 +5009,15 @@
     <col min="1" max="1" width="16.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -4711,27 +5031,30 @@
         <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -4741,11 +5064,14 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -4755,11 +5081,14 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -4769,11 +5098,14 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>0</v>
       </c>
@@ -4783,11 +5115,14 @@
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -4800,14 +5135,14 @@
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="F7" s="4">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>0</v>
       </c>
@@ -4820,14 +5155,14 @@
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
-        <v>30</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="F8" s="4">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>0</v>
       </c>
@@ -4840,14 +5175,14 @@
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="F9" s="4">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>0</v>
       </c>
@@ -4860,14 +5195,14 @@
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4">
-        <v>30</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="F10" s="4">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>0</v>
       </c>
@@ -4880,17 +5215,17 @@
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4">
-        <v>30</v>
-      </c>
       <c r="G11" s="4">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4">
         <v>60</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>0</v>
       </c>
@@ -4903,17 +5238,17 @@
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4">
-        <v>30</v>
-      </c>
       <c r="G12" s="4">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4">
         <v>60</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0</v>
       </c>
@@ -4926,17 +5261,17 @@
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="4">
-        <v>30</v>
-      </c>
       <c r="G13" s="4">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4">
         <v>60</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>0</v>
       </c>
@@ -4949,17 +5284,17 @@
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="4">
-        <v>30</v>
-      </c>
       <c r="G14" s="4">
+        <v>30</v>
+      </c>
+      <c r="H14" s="4">
         <v>60</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>0</v>
       </c>
@@ -4972,14 +5307,14 @@
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4">
-        <v>30</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="F15" s="4">
+        <v>30</v>
+      </c>
+      <c r="I15" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>0</v>
       </c>
@@ -4992,14 +5327,14 @@
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4">
-        <v>30</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="F16" s="4">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>0</v>
       </c>
@@ -5012,14 +5347,14 @@
       <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="4">
-        <v>30</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="F17" s="4">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>0</v>
       </c>
@@ -5032,14 +5367,14 @@
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="4">
-        <v>30</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="F18" s="4">
+        <v>30</v>
+      </c>
+      <c r="I18" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>0</v>
       </c>
@@ -5052,17 +5387,17 @@
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="4">
-        <v>30</v>
-      </c>
       <c r="G19" s="4">
+        <v>30</v>
+      </c>
+      <c r="H19" s="4">
         <v>60</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>0</v>
       </c>
@@ -5075,17 +5410,17 @@
       <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="4">
-        <v>30</v>
-      </c>
       <c r="G20" s="4">
+        <v>30</v>
+      </c>
+      <c r="H20" s="4">
         <v>60</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>0</v>
       </c>
@@ -5098,17 +5433,17 @@
       <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="4">
-        <v>30</v>
-      </c>
       <c r="G21" s="4">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4">
         <v>60</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>0</v>
       </c>
@@ -5121,17 +5456,17 @@
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="4">
-        <v>30</v>
-      </c>
       <c r="G22" s="4">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4">
         <v>60</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>4.8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>0</v>
       </c>
@@ -5144,14 +5479,14 @@
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="4">
-        <v>30</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="F23" s="4">
+        <v>30</v>
+      </c>
+      <c r="I23" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>0</v>
       </c>
@@ -5164,14 +5499,14 @@
       <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="4">
-        <v>30</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="F24" s="4">
+        <v>30</v>
+      </c>
+      <c r="I24" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>0</v>
       </c>
@@ -5184,14 +5519,14 @@
       <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4">
-        <v>30</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="F25" s="4">
+        <v>30</v>
+      </c>
+      <c r="I25" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>0</v>
       </c>
@@ -5204,14 +5539,14 @@
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="4">
-        <v>30</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="F26" s="4">
+        <v>30</v>
+      </c>
+      <c r="I26" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>0</v>
       </c>
@@ -5224,17 +5559,17 @@
       <c r="D27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="4">
-        <v>30</v>
-      </c>
       <c r="G27" s="4">
+        <v>30</v>
+      </c>
+      <c r="H27" s="4">
         <v>60</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>0</v>
       </c>
@@ -5247,17 +5582,17 @@
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="4">
-        <v>30</v>
-      </c>
       <c r="G28" s="4">
+        <v>30</v>
+      </c>
+      <c r="H28" s="4">
         <v>60</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>0</v>
       </c>
@@ -5270,17 +5605,17 @@
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="4">
-        <v>30</v>
-      </c>
       <c r="G29" s="4">
+        <v>30</v>
+      </c>
+      <c r="H29" s="4">
         <v>60</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>0</v>
       </c>
@@ -5293,17 +5628,17 @@
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="4">
-        <v>30</v>
-      </c>
       <c r="G30" s="4">
+        <v>30</v>
+      </c>
+      <c r="H30" s="4">
         <v>60</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>4.8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>0</v>
       </c>
@@ -5313,11 +5648,14 @@
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="4">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>0</v>
       </c>
@@ -5327,11 +5665,14 @@
       <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="4">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>0</v>
       </c>
@@ -5341,11 +5682,14 @@
       <c r="C33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="4">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>0</v>
       </c>
@@ -5355,11 +5699,14 @@
       <c r="C34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="4">
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>0</v>
       </c>
@@ -5372,14 +5719,14 @@
       <c r="D35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="4">
-        <v>30</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="F35" s="4">
+        <v>30</v>
+      </c>
+      <c r="I35" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>0</v>
       </c>
@@ -5392,14 +5739,14 @@
       <c r="D36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="4">
-        <v>30</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="F36" s="4">
+        <v>30</v>
+      </c>
+      <c r="I36" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>0</v>
       </c>
@@ -5412,14 +5759,14 @@
       <c r="D37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="4">
-        <v>30</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="F37" s="4">
+        <v>30</v>
+      </c>
+      <c r="I37" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>0</v>
       </c>
@@ -5432,14 +5779,14 @@
       <c r="D38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="4">
-        <v>30</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="F38" s="4">
+        <v>30</v>
+      </c>
+      <c r="I38" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>0</v>
       </c>
@@ -5452,17 +5799,17 @@
       <c r="D39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="4">
-        <v>30</v>
-      </c>
       <c r="G39" s="4">
+        <v>30</v>
+      </c>
+      <c r="H39" s="4">
         <v>60</v>
       </c>
-      <c r="H39" s="4">
+      <c r="I39" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>0</v>
       </c>
@@ -5475,17 +5822,17 @@
       <c r="D40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="4">
-        <v>30</v>
-      </c>
       <c r="G40" s="4">
+        <v>30</v>
+      </c>
+      <c r="H40" s="4">
         <v>60</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>0</v>
       </c>
@@ -5498,17 +5845,17 @@
       <c r="D41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="4">
-        <v>30</v>
-      </c>
       <c r="G41" s="4">
+        <v>30</v>
+      </c>
+      <c r="H41" s="4">
         <v>60</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -5521,17 +5868,17 @@
       <c r="D42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="4">
-        <v>30</v>
-      </c>
       <c r="G42" s="4">
+        <v>30</v>
+      </c>
+      <c r="H42" s="4">
         <v>60</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>0</v>
       </c>
@@ -5544,14 +5891,14 @@
       <c r="D43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="4">
-        <v>30</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="F43" s="4">
+        <v>30</v>
+      </c>
+      <c r="I43" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>0</v>
       </c>
@@ -5564,14 +5911,14 @@
       <c r="D44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="4">
-        <v>30</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="F44" s="4">
+        <v>30</v>
+      </c>
+      <c r="I44" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>0</v>
       </c>
@@ -5584,14 +5931,14 @@
       <c r="D45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="4">
-        <v>30</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="F45" s="4">
+        <v>30</v>
+      </c>
+      <c r="I45" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>0</v>
       </c>
@@ -5604,14 +5951,14 @@
       <c r="D46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="4">
-        <v>30</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="F46" s="4">
+        <v>30</v>
+      </c>
+      <c r="I46" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>0</v>
       </c>
@@ -5624,17 +5971,17 @@
       <c r="D47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="4">
-        <v>30</v>
-      </c>
       <c r="G47" s="4">
+        <v>30</v>
+      </c>
+      <c r="H47" s="4">
         <v>60</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>0</v>
       </c>
@@ -5647,17 +5994,17 @@
       <c r="D48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="4">
-        <v>30</v>
-      </c>
       <c r="G48" s="4">
+        <v>30</v>
+      </c>
+      <c r="H48" s="4">
         <v>60</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>0</v>
       </c>
@@ -5670,17 +6017,17 @@
       <c r="D49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="4">
-        <v>30</v>
-      </c>
       <c r="G49" s="4">
+        <v>30</v>
+      </c>
+      <c r="H49" s="4">
         <v>60</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>0</v>
       </c>
@@ -5693,18 +6040,18 @@
       <c r="D50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="4">
-        <v>30</v>
-      </c>
       <c r="G50" s="4">
+        <v>30</v>
+      </c>
+      <c r="H50" s="4">
         <v>60</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>4.8</v>
       </c>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>0</v>
       </c>
@@ -5717,15 +6064,15 @@
       <c r="D51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="4">
-        <v>30</v>
-      </c>
-      <c r="H51" s="4">
+      <c r="F51" s="4">
+        <v>30</v>
+      </c>
+      <c r="I51" s="4">
         <v>3.3</v>
       </c>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>0</v>
       </c>
@@ -5738,15 +6085,15 @@
       <c r="D52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="4">
-        <v>30</v>
-      </c>
-      <c r="H52" s="4">
+      <c r="F52" s="4">
+        <v>30</v>
+      </c>
+      <c r="I52" s="4">
         <v>3.3</v>
       </c>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>0</v>
       </c>
@@ -5759,15 +6106,15 @@
       <c r="D53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="4">
-        <v>30</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="F53" s="4">
+        <v>30</v>
+      </c>
+      <c r="I53" s="4">
         <v>3.3</v>
       </c>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>0</v>
       </c>
@@ -5780,15 +6127,15 @@
       <c r="D54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="4">
-        <v>30</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="F54" s="4">
+        <v>30</v>
+      </c>
+      <c r="I54" s="4">
         <v>5.5</v>
       </c>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>0</v>
       </c>
@@ -5801,18 +6148,18 @@
       <c r="D55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="4">
-        <v>30</v>
-      </c>
       <c r="G55" s="4">
+        <v>30</v>
+      </c>
+      <c r="H55" s="4">
         <v>60</v>
       </c>
-      <c r="H55" s="4">
+      <c r="I55" s="4">
         <v>3.3</v>
       </c>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>0</v>
       </c>
@@ -5825,18 +6172,18 @@
       <c r="D56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="4">
-        <v>30</v>
-      </c>
       <c r="G56" s="4">
+        <v>30</v>
+      </c>
+      <c r="H56" s="4">
         <v>60</v>
       </c>
-      <c r="H56" s="4">
+      <c r="I56" s="4">
         <v>3.3</v>
       </c>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>0</v>
       </c>
@@ -5849,18 +6196,18 @@
       <c r="D57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="4">
-        <v>30</v>
-      </c>
       <c r="G57" s="4">
+        <v>30</v>
+      </c>
+      <c r="H57" s="4">
         <v>60</v>
       </c>
-      <c r="H57" s="4">
+      <c r="I57" s="4">
         <v>3.3</v>
       </c>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>0</v>
       </c>
@@ -5873,30 +6220,33 @@
       <c r="D58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="4">
-        <v>30</v>
-      </c>
       <c r="G58" s="4">
+        <v>30</v>
+      </c>
+      <c r="H58" s="4">
         <v>60</v>
       </c>
-      <c r="H58" s="4">
+      <c r="I58" s="4">
         <v>4.8</v>
       </c>
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>0</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H59" s="4">
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
         <v>1.5</v>
       </c>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>0</v>
       </c>
@@ -5909,15 +6259,15 @@
       <c r="D60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="4">
-        <v>30</v>
-      </c>
-      <c r="H60" s="4">
+      <c r="F60" s="4">
+        <v>30</v>
+      </c>
+      <c r="I60" s="4">
         <v>4</v>
       </c>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>0</v>
       </c>
@@ -5930,15 +6280,15 @@
       <c r="D61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="4">
-        <v>30</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="F61" s="4">
+        <v>30</v>
+      </c>
+      <c r="I61" s="4">
         <v>4</v>
       </c>
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>0</v>
       </c>
@@ -5951,14 +6301,14 @@
       <c r="D62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="4">
-        <v>30</v>
-      </c>
-      <c r="H62" s="4">
+      <c r="F62" s="4">
+        <v>30</v>
+      </c>
+      <c r="I62" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>0</v>
       </c>
@@ -5971,14 +6321,14 @@
       <c r="D63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="4">
-        <v>30</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="F63" s="4">
+        <v>30</v>
+      </c>
+      <c r="I63" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>0</v>
       </c>
@@ -5991,17 +6341,17 @@
       <c r="D64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="4">
-        <v>30</v>
-      </c>
       <c r="G64" s="4">
+        <v>30</v>
+      </c>
+      <c r="H64" s="4">
         <v>60</v>
       </c>
-      <c r="H64" s="4">
+      <c r="I64" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>0</v>
       </c>
@@ -6014,17 +6364,17 @@
       <c r="D65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="4">
-        <v>30</v>
-      </c>
       <c r="G65" s="4">
+        <v>30</v>
+      </c>
+      <c r="H65" s="4">
         <v>60</v>
       </c>
-      <c r="H65" s="4">
+      <c r="I65" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>0</v>
       </c>
@@ -6037,17 +6387,17 @@
       <c r="D66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="4">
-        <v>30</v>
-      </c>
       <c r="G66" s="4">
+        <v>30</v>
+      </c>
+      <c r="H66" s="4">
         <v>60</v>
       </c>
-      <c r="H66" s="4">
+      <c r="I66" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>0</v>
       </c>
@@ -6060,17 +6410,17 @@
       <c r="D67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="4">
-        <v>30</v>
-      </c>
       <c r="G67" s="4">
+        <v>30</v>
+      </c>
+      <c r="H67" s="4">
         <v>60</v>
       </c>
-      <c r="H67" s="4">
+      <c r="I67" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>0</v>
       </c>
@@ -6080,11 +6430,11 @@
       <c r="D68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="4">
+      <c r="I68" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>0</v>
       </c>
@@ -6094,7 +6444,7 @@
       <c r="D69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="4">
+      <c r="I69" s="4">
         <v>1.5</v>
       </c>
     </row>
